--- a/tp6-parte1/tabla_sim_annealing.xlsx
+++ b/tp6-parte1/tabla_sim_annealing.xlsx
@@ -32,22 +32,22 @@
     <t>NQUEENS Simulated Annealing</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
     <t>500</t>
   </si>
   <si>
-    <t>5000</t>
-  </si>
-  <si>
-    <t>50002</t>
-  </si>
-  <si>
-    <t>(midiendo % exito)</t>
+    <t>650</t>
+  </si>
+  <si>
+    <t>700</t>
+  </si>
+  <si>
+    <t>550</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>(midiendo % éxito | limit = 2000)</t>
   </si>
 </sst>
 </file>
@@ -110,16 +110,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Énfasis1" xfId="1" builtinId="29"/>
@@ -143,11 +144,11 @@
   <autoFilter ref="C6:H10"/>
   <tableColumns count="6">
     <tableColumn id="1" name="∂ \ k" dataCellStyle="Énfasis1"/>
-    <tableColumn id="2" name="10"/>
-    <tableColumn id="3" name="50"/>
-    <tableColumn id="4" name="500"/>
-    <tableColumn id="5" name="5000"/>
-    <tableColumn id="6" name="50002"/>
+    <tableColumn id="2" name="500"/>
+    <tableColumn id="3" name="550"/>
+    <tableColumn id="4" name="600"/>
+    <tableColumn id="5" name="650"/>
+    <tableColumn id="6" name="700"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -419,7 +420,7 @@
   <dimension ref="C5:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -428,16 +429,16 @@
   </cols>
   <sheetData>
     <row r="5" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3" t="s">
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C6" s="1" t="s">
@@ -447,40 +448,55 @@
         <v>2</v>
       </c>
       <c r="E6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" t="s">
         <v>3</v>
       </c>
-      <c r="F6" t="s">
+      <c r="H6" t="s">
         <v>4</v>
-      </c>
-      <c r="G6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="7" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C7" s="2">
-        <v>5.0000000000000001E-4</v>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0.62</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0.62</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0.6</v>
       </c>
     </row>
     <row r="8" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C8" s="2">
-        <v>1E-3</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C9" s="2">
-        <v>0.01</v>
+        <v>0.05</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0.9</v>
       </c>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C10" s="2">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C13" s="4"/>
+      <c r="C13" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/tp6-parte1/tabla_sim_annealing.xlsx
+++ b/tp6-parte1/tabla_sim_annealing.xlsx
@@ -117,10 +117,10 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Énfasis1" xfId="1" builtinId="29"/>
@@ -140,8 +140,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="C6:H10" totalsRowShown="0">
-  <autoFilter ref="C6:H10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="C6:H11" totalsRowShown="0">
+  <autoFilter ref="C6:H11"/>
   <tableColumns count="6">
     <tableColumn id="1" name="∂ \ k" dataCellStyle="Énfasis1"/>
     <tableColumn id="2" name="500"/>
@@ -420,7 +420,7 @@
   <dimension ref="C5:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -429,16 +429,16 @@
   </cols>
   <sheetData>
     <row r="5" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4" t="s">
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C6" s="1" t="s">
@@ -464,35 +464,100 @@
       <c r="C7" s="2">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>0.6</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>0.62</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <v>0.62</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="4">
         <v>0.6</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="8" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C8" s="2">
         <v>0.01</v>
       </c>
+      <c r="D8" s="4">
+        <v>0.82</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.86</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.84</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0.86</v>
+      </c>
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C9" s="2">
         <v>0.05</v>
       </c>
-      <c r="G9" s="5">
+      <c r="D9" s="4">
+        <v>0.91</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.91</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="H9" s="4">
         <v>0.9</v>
       </c>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C10" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.92</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.91</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C11" s="2">
         <v>0.5</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.88</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0.86</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0.87</v>
       </c>
     </row>
     <row r="13" spans="3:8" x14ac:dyDescent="0.3">
